--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J2">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1602208046484</v>
+        <v>20.26081</v>
       </c>
       <c r="N2">
-        <v>12.1602208046484</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q2">
-        <v>66.490123251894</v>
+        <v>1.022265922153333</v>
       </c>
       <c r="R2">
-        <v>66.490123251894</v>
+        <v>9.20039329938</v>
       </c>
       <c r="S2">
-        <v>0.06219600411082877</v>
+        <v>0.0007254655579329921</v>
       </c>
       <c r="T2">
-        <v>0.06219600411082877</v>
+        <v>0.0007254655579329921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J3">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.8543492422994</v>
+        <v>55.974318</v>
       </c>
       <c r="N3">
-        <v>55.8543492422994</v>
+        <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q3">
-        <v>305.4025601126573</v>
+        <v>2.824202872796</v>
       </c>
       <c r="R3">
-        <v>305.4025601126573</v>
+        <v>25.417825855164</v>
       </c>
       <c r="S3">
-        <v>0.2856788039369951</v>
+        <v>0.002004235755519583</v>
       </c>
       <c r="T3">
-        <v>0.2856788039369951</v>
+        <v>0.002004235755519583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J4">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.174273158150951</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N4">
-        <v>0.174273158150951</v>
+        <v>0.215531</v>
       </c>
       <c r="O4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q4">
-        <v>0.9528974803256944</v>
+        <v>0.003624896149555555</v>
       </c>
       <c r="R4">
-        <v>0.9528974803256944</v>
+        <v>0.03262406534599999</v>
       </c>
       <c r="S4">
-        <v>0.0008913566813375855</v>
+        <v>2.572459132793073E-06</v>
       </c>
       <c r="T4">
-        <v>0.0008913566813375855</v>
+        <v>2.572459132793074E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H5">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I5">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J5">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.191198110973819</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N5">
-        <v>0.191198110973819</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q5">
-        <v>1.045440388657985</v>
+        <v>0.009389165706222221</v>
       </c>
       <c r="R5">
-        <v>1.045440388657985</v>
+        <v>0.08450249135599999</v>
       </c>
       <c r="S5">
-        <v>0.0009779229084034859</v>
+        <v>6.663155046039122E-06</v>
       </c>
       <c r="T5">
-        <v>0.0009779229084034859</v>
+        <v>6.663155046039123E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,72 +776,72 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H6">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I6">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J6">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.5770824985993</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N6">
-        <v>12.5770824985993</v>
+        <v>0.579881</v>
       </c>
       <c r="O6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q6">
-        <v>68.76945566329178</v>
+        <v>0.009752696382888889</v>
       </c>
       <c r="R6">
-        <v>68.76945566329178</v>
+        <v>0.087774267446</v>
       </c>
       <c r="S6">
-        <v>0.06432813082523071</v>
+        <v>6.921139763575451E-06</v>
       </c>
       <c r="T6">
-        <v>0.06432813082523071</v>
+        <v>6.921139763575451E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -847,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>6.92415863640736</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H7">
-        <v>6.92415863640736</v>
+        <v>0.151366</v>
       </c>
       <c r="I7">
-        <v>0.5243574289147146</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J7">
-        <v>0.5243574289147146</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1602208046484</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N7">
-        <v>12.1602208046484</v>
+        <v>52.754797</v>
       </c>
       <c r="O7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q7">
-        <v>84.19929790512667</v>
+        <v>0.8872536225224443</v>
       </c>
       <c r="R7">
-        <v>84.19929790512667</v>
+        <v>7.985282602701999</v>
       </c>
       <c r="S7">
-        <v>0.07876147046376517</v>
+        <v>0.000629652158349818</v>
       </c>
       <c r="T7">
-        <v>0.07876147046376517</v>
+        <v>0.0006296521583498181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H8">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8543492422994</v>
+        <v>20.26081</v>
       </c>
       <c r="N8">
-        <v>55.8543492422994</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q8">
-        <v>386.7443746869803</v>
+        <v>117.0434103651767</v>
       </c>
       <c r="R8">
-        <v>386.7443746869803</v>
+        <v>1053.39069328659</v>
       </c>
       <c r="S8">
-        <v>0.3617673353791857</v>
+        <v>0.08306152162843686</v>
       </c>
       <c r="T8">
-        <v>0.3617673353791857</v>
+        <v>0.08306152162843686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H9">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174273158150951</v>
+        <v>55.974318</v>
       </c>
       <c r="N9">
-        <v>0.174273158150951</v>
+        <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q9">
-        <v>1.206694993104893</v>
+        <v>323.354548588378</v>
       </c>
       <c r="R9">
-        <v>1.206694993104893</v>
+        <v>2910.190937295402</v>
       </c>
       <c r="S9">
-        <v>0.001128763237020027</v>
+        <v>0.2294731565615591</v>
       </c>
       <c r="T9">
-        <v>0.001128763237020027</v>
+        <v>0.2294731565615591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H10">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.191198110973819</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N10">
-        <v>0.191198110973819</v>
+        <v>0.215531</v>
       </c>
       <c r="O10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q10">
-        <v>1.323886051364142</v>
+        <v>0.4150291997114444</v>
       </c>
       <c r="R10">
-        <v>1.323886051364142</v>
+        <v>3.735262797402999</v>
       </c>
       <c r="S10">
-        <v>0.001238385767175842</v>
+        <v>0.0002945313772104639</v>
       </c>
       <c r="T10">
-        <v>0.001238385767175842</v>
+        <v>0.000294531377210464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H11">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5770824985993</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N11">
-        <v>12.5770824985993</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q11">
-        <v>87.0857144034842</v>
+        <v>1.075004018939778</v>
       </c>
       <c r="R11">
-        <v>87.0857144034842</v>
+        <v>9.675036170457998</v>
       </c>
       <c r="S11">
-        <v>0.081461474067568</v>
+        <v>0.0007628918987513483</v>
       </c>
       <c r="T11">
-        <v>0.081461474067568</v>
+        <v>0.0007628918987513484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.813038712429493</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H12">
-        <v>0.813038712429493</v>
+        <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J12">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.1602208046484</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N12">
-        <v>12.1602208046484</v>
+        <v>0.579881</v>
       </c>
       <c r="O12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q12">
-        <v>9.886730265869668</v>
+        <v>1.116626134328111</v>
       </c>
       <c r="R12">
-        <v>9.886730265869668</v>
+        <v>10.049635208953</v>
       </c>
       <c r="S12">
-        <v>0.009248217422144257</v>
+        <v>0.0007924296251962877</v>
       </c>
       <c r="T12">
-        <v>0.009248217422144257</v>
+        <v>0.0007924296251962876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.813038712429493</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H13">
-        <v>0.813038712429493</v>
+        <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J13">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.8543492422994</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N13">
-        <v>55.8543492422994</v>
+        <v>52.754797</v>
       </c>
       <c r="O13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q13">
-        <v>45.41174819154633</v>
+        <v>101.5852994689845</v>
       </c>
       <c r="R13">
-        <v>45.41174819154633</v>
+        <v>914.2676952208609</v>
       </c>
       <c r="S13">
-        <v>0.04247892978782952</v>
+        <v>0.07209145327061282</v>
       </c>
       <c r="T13">
-        <v>0.04247892978782952</v>
+        <v>0.07209145327061282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H14">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.174273158150951</v>
+        <v>20.26081</v>
       </c>
       <c r="N14">
-        <v>0.174273158150951</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q14">
-        <v>0.1416908241140706</v>
+        <v>12.75667872823333</v>
       </c>
       <c r="R14">
-        <v>0.1416908241140706</v>
+        <v>114.8101085541</v>
       </c>
       <c r="S14">
-        <v>0.0001325400322342525</v>
+        <v>0.009052958579951184</v>
       </c>
       <c r="T14">
-        <v>0.0001325400322342525</v>
+        <v>0.009052958579951184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H15">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.191198110973819</v>
+        <v>55.974318</v>
       </c>
       <c r="N15">
-        <v>0.191198110973819</v>
+        <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q15">
-        <v>0.1554514659651051</v>
+        <v>35.24273668022</v>
       </c>
       <c r="R15">
-        <v>0.1554514659651051</v>
+        <v>317.18463012198</v>
       </c>
       <c r="S15">
-        <v>0.0001454119731372979</v>
+        <v>0.02501050956970703</v>
       </c>
       <c r="T15">
-        <v>0.0001454119731372979</v>
+        <v>0.02501050956970703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,49 +1408,1351 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H16">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>12.5770824985993</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N16">
-        <v>12.5770824985993</v>
+        <v>0.215531</v>
       </c>
       <c r="O16">
-        <v>0.1553548582999431</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P16">
-        <v>0.1553548582999431</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q16">
-        <v>10.22565496078069</v>
+        <v>0.04523444888555554</v>
       </c>
       <c r="R16">
-        <v>10.22565496078069</v>
+        <v>0.4071100399699999</v>
       </c>
       <c r="S16">
-        <v>0.009565253407144427</v>
+        <v>3.210127031274428E-05</v>
       </c>
       <c r="T16">
-        <v>0.009565253407144427</v>
+        <v>3.21012703127443E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.88887</v>
+      </c>
+      <c r="I17">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J17">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P17">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q17">
+        <v>0.1171657666022222</v>
+      </c>
+      <c r="R17">
+        <v>1.05449189942</v>
+      </c>
+      <c r="S17">
+        <v>8.314835347311758E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.314835347311759E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.88887</v>
+      </c>
+      <c r="I18">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J18">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.579881</v>
+      </c>
+      <c r="O18">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P18">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q18">
+        <v>0.1217022027188889</v>
+      </c>
+      <c r="R18">
+        <v>1.09531982447</v>
+      </c>
+      <c r="S18">
+        <v>8.636769991427904E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.636769991427904E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.88887</v>
+      </c>
+      <c r="I19">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J19">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N19">
+        <v>52.754797</v>
+      </c>
+      <c r="O19">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P19">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q19">
+        <v>11.07188371215444</v>
+      </c>
+      <c r="R19">
+        <v>99.64695340938999</v>
+      </c>
+      <c r="S19">
+        <v>0.007857319823092509</v>
+      </c>
+      <c r="T19">
+        <v>0.007857319823092511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.352184</v>
+      </c>
+      <c r="H20">
+        <v>1.056552</v>
+      </c>
+      <c r="I20">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J20">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.26081</v>
+      </c>
+      <c r="N20">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P20">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q20">
+        <v>7.135533109040001</v>
+      </c>
+      <c r="R20">
+        <v>64.21979798136</v>
+      </c>
+      <c r="S20">
+        <v>0.005063832605507305</v>
+      </c>
+      <c r="T20">
+        <v>0.005063832605507305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.352184</v>
+      </c>
+      <c r="H21">
+        <v>1.056552</v>
+      </c>
+      <c r="I21">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J21">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>55.974318</v>
+      </c>
+      <c r="N21">
+        <v>167.922954</v>
+      </c>
+      <c r="O21">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P21">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q21">
+        <v>19.713259210512</v>
+      </c>
+      <c r="R21">
+        <v>177.419332894608</v>
+      </c>
+      <c r="S21">
+        <v>0.01398979490748072</v>
+      </c>
+      <c r="T21">
+        <v>0.01398979490748072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.352184</v>
+      </c>
+      <c r="H22">
+        <v>1.056552</v>
+      </c>
+      <c r="I22">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J22">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N22">
+        <v>0.215531</v>
+      </c>
+      <c r="O22">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P22">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q22">
+        <v>0.02530218990133333</v>
+      </c>
+      <c r="R22">
+        <v>0.227719709112</v>
+      </c>
+      <c r="S22">
+        <v>1.795605909960484E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.795605909960485E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.352184</v>
+      </c>
+      <c r="H23">
+        <v>1.056552</v>
+      </c>
+      <c r="I23">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J23">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P23">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q23">
+        <v>0.06553745098133333</v>
+      </c>
+      <c r="R23">
+        <v>0.5898370588319999</v>
+      </c>
+      <c r="S23">
+        <v>4.650958465046791E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.650958465046792E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.352184</v>
+      </c>
+      <c r="H24">
+        <v>1.056552</v>
+      </c>
+      <c r="I24">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J24">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.579881</v>
+      </c>
+      <c r="O24">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P24">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q24">
+        <v>0.06807493670133333</v>
+      </c>
+      <c r="R24">
+        <v>0.612674430312</v>
+      </c>
+      <c r="S24">
+        <v>4.831034749867982E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.831034749867982E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.352184</v>
+      </c>
+      <c r="H25">
+        <v>1.056552</v>
+      </c>
+      <c r="I25">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J25">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N25">
+        <v>52.754797</v>
+      </c>
+      <c r="O25">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P25">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q25">
+        <v>6.193131808882666</v>
+      </c>
+      <c r="R25">
+        <v>55.738186279944</v>
+      </c>
+      <c r="S25">
+        <v>0.004395044113003031</v>
+      </c>
+      <c r="T25">
+        <v>0.004395044113003032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H26">
+        <v>21.947639</v>
+      </c>
+      <c r="I26">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J26">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.26081</v>
+      </c>
+      <c r="N26">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P26">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q26">
+        <v>148.2256479091967</v>
+      </c>
+      <c r="R26">
+        <v>1334.03083118277</v>
+      </c>
+      <c r="S26">
+        <v>0.1051904402074898</v>
+      </c>
+      <c r="T26">
+        <v>0.1051904402074898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H27">
+        <v>21.947639</v>
+      </c>
+      <c r="I27">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J27">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>55.974318</v>
+      </c>
+      <c r="N27">
+        <v>167.922954</v>
+      </c>
+      <c r="O27">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P27">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q27">
+        <v>409.501374911734</v>
+      </c>
+      <c r="R27">
+        <v>3685.512374205606</v>
+      </c>
+      <c r="S27">
+        <v>0.2906084776834696</v>
+      </c>
+      <c r="T27">
+        <v>0.2906084776834696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H28">
+        <v>21.947639</v>
+      </c>
+      <c r="I28">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J28">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N28">
+        <v>0.215531</v>
+      </c>
+      <c r="O28">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P28">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q28">
+        <v>0.5255996201454444</v>
+      </c>
+      <c r="R28">
+        <v>4.730396581308999</v>
+      </c>
+      <c r="S28">
+        <v>0.000372999249427186</v>
+      </c>
+      <c r="T28">
+        <v>0.0003729992494271861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H29">
+        <v>21.947639</v>
+      </c>
+      <c r="I29">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J29">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P29">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q29">
+        <v>1.361402292663778</v>
+      </c>
+      <c r="R29">
+        <v>12.252620633974</v>
+      </c>
+      <c r="S29">
+        <v>0.0009661385089881151</v>
+      </c>
+      <c r="T29">
+        <v>0.0009661385089881152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H30">
+        <v>21.947639</v>
+      </c>
+      <c r="I30">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J30">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.579881</v>
+      </c>
+      <c r="O30">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P30">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q30">
+        <v>1.414113205662111</v>
+      </c>
+      <c r="R30">
+        <v>12.727018850959</v>
+      </c>
+      <c r="S30">
+        <v>0.001003545558444429</v>
+      </c>
+      <c r="T30">
+        <v>0.001003545558444428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H31">
+        <v>21.947639</v>
+      </c>
+      <c r="I31">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J31">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N31">
+        <v>52.754797</v>
+      </c>
+      <c r="O31">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P31">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q31">
+        <v>128.6492488971425</v>
+      </c>
+      <c r="R31">
+        <v>1157.843240074283</v>
+      </c>
+      <c r="S31">
+        <v>0.09129777008728937</v>
+      </c>
+      <c r="T31">
+        <v>0.09129777008728937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H32">
+        <v>2.467466</v>
+      </c>
+      <c r="I32">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J32">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>20.26081</v>
+      </c>
+      <c r="N32">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P32">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q32">
+        <v>16.66428660248667</v>
+      </c>
+      <c r="R32">
+        <v>149.97857942238</v>
+      </c>
+      <c r="S32">
+        <v>0.01182604811100702</v>
+      </c>
+      <c r="T32">
+        <v>0.01182604811100702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H33">
+        <v>2.467466</v>
+      </c>
+      <c r="I33">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J33">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>55.974318</v>
+      </c>
+      <c r="N33">
+        <v>167.922954</v>
+      </c>
+      <c r="O33">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P33">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q33">
+        <v>46.038242179396</v>
+      </c>
+      <c r="R33">
+        <v>414.344179614564</v>
+      </c>
+      <c r="S33">
+        <v>0.03267169366125076</v>
+      </c>
+      <c r="T33">
+        <v>0.03267169366125076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H34">
+        <v>2.467466</v>
+      </c>
+      <c r="I34">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J34">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N34">
+        <v>0.215531</v>
+      </c>
+      <c r="O34">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P34">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q34">
+        <v>0.0590906016051111</v>
+      </c>
+      <c r="R34">
+        <v>0.5318154144459999</v>
+      </c>
+      <c r="S34">
+        <v>4.193448625554215E-05</v>
+      </c>
+      <c r="T34">
+        <v>4.193448625554216E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H35">
+        <v>2.467466</v>
+      </c>
+      <c r="I35">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J35">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P35">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q35">
+        <v>0.1530558193284444</v>
+      </c>
+      <c r="R35">
+        <v>1.377502373956</v>
+      </c>
+      <c r="S35">
+        <v>0.0001086182400858183</v>
+      </c>
+      <c r="T35">
+        <v>0.0001086182400858183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H36">
+        <v>2.467466</v>
+      </c>
+      <c r="I36">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J36">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.579881</v>
+      </c>
+      <c r="O36">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P36">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q36">
+        <v>0.1589818501717778</v>
+      </c>
+      <c r="R36">
+        <v>1.430836651546</v>
+      </c>
+      <c r="S36">
+        <v>0.0001128237321979207</v>
+      </c>
+      <c r="T36">
+        <v>0.0001128237321979207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H37">
+        <v>2.467466</v>
+      </c>
+      <c r="I37">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J37">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N37">
+        <v>52.754797</v>
+      </c>
+      <c r="O37">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P37">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q37">
+        <v>14.46340754826689</v>
+      </c>
+      <c r="R37">
+        <v>130.170667934402</v>
+      </c>
+      <c r="S37">
+        <v>0.01026416297289214</v>
+      </c>
+      <c r="T37">
+        <v>0.01026416297289214</v>
       </c>
     </row>
   </sheetData>
